--- a/excel_export_python/export_test_1.xlsx
+++ b/excel_export_python/export_test_1.xlsx
@@ -14,45 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+  <si>
+    <t>410067</t>
+  </si>
+  <si>
+    <t>李莘智</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>19931214</t>
+  </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>方任渊</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>19940101</t>
-  </si>
-  <si>
-    <t>111111111111111111</t>
-  </si>
-  <si>
-    <t>08</t>
+    <t>410304199312140512</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>13298309731</t>
+  </si>
+  <si>
+    <t>08-2013154-201315414</t>
+  </si>
+  <si>
+    <t>不知道</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>34123445</t>
+  </si>
+  <si>
+    <t>410939484839388889</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>15981837543</t>
+  </si>
+  <si>
+    <t>郑州大学</t>
+  </si>
+  <si>
+    <t>可以的啊</t>
+  </si>
+  <si>
+    <t>19989898</t>
+  </si>
+  <si>
+    <t>410298473919383742</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>450000</t>
-  </si>
-  <si>
-    <t>郑州市</t>
-  </si>
-  <si>
-    <t>9999999213@gmail.com</t>
-  </si>
-  <si>
-    <t>13298309813</t>
-  </si>
-  <si>
-    <t>201315520</t>
+    <t>17384756473</t>
+  </si>
+  <si>
+    <t>河南工业大学</t>
+  </si>
+  <si>
+    <t>123445555</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>12131231231@qq.com</t>
   </si>
 </sst>
 </file>
@@ -384,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,40 +452,122 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/excel_export_python/export_test_1.xlsx
+++ b/excel_export_python/export_test_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>410067</t>
   </si>
@@ -101,6 +101,27 @@
   </si>
   <si>
     <t>12131231231@qq.com</t>
+  </si>
+  <si>
+    <t>试一试</t>
+  </si>
+  <si>
+    <t>410304199312140590</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13298309877</t>
+  </si>
+  <si>
+    <t>43-2012215-201405598</t>
   </si>
 </sst>
 </file>
@@ -432,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,6 +591,47 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_export_python/export_test_1.xlsx
+++ b/excel_export_python/export_test_1.xlsx
@@ -14,114 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="41">
+  <si>
+    <t>410084</t>
+  </si>
+  <si>
+    <t>方仁</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>19810419</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11000019810419093X</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13298309816</t>
+  </si>
+  <si>
+    <t>水利201315502</t>
+  </si>
+  <si>
+    <t>tom4</t>
+  </si>
+  <si>
+    <t>19950116</t>
+  </si>
+  <si>
+    <t>230182199501160046</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>13289309768</t>
+  </si>
+  <si>
+    <t>郑州大学</t>
+  </si>
+  <si>
+    <t>230182199501160146</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>320182199501160017</t>
+  </si>
+  <si>
+    <t>河南财经政法大学</t>
+  </si>
   <si>
     <t>410067</t>
   </si>
   <si>
-    <t>李莘智</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>19931214</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>410304199312140512</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>13298309731</t>
-  </si>
-  <si>
-    <t>08-2013154-201315414</t>
-  </si>
-  <si>
-    <t>不知道</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>34123445</t>
-  </si>
-  <si>
-    <t>410939484839388889</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15981837543</t>
-  </si>
-  <si>
-    <t>郑州大学</t>
-  </si>
-  <si>
-    <t>可以的啊</t>
-  </si>
-  <si>
-    <t>19989898</t>
-  </si>
-  <si>
-    <t>410298473919383742</t>
-  </si>
-  <si>
-    <t>03</t>
+    <t>fang</t>
+  </si>
+  <si>
+    <t>19681210</t>
+  </si>
+  <si>
+    <t>330126196812100019</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>环工201315502</t>
+  </si>
+  <si>
+    <t>330182199501160017</t>
+  </si>
+  <si>
+    <t>330182199501160018</t>
+  </si>
+  <si>
+    <t>testtttt</t>
+  </si>
+  <si>
+    <t>330182199501160019</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>17384756473</t>
-  </si>
-  <si>
-    <t>河南工业大学</t>
-  </si>
-  <si>
-    <t>123445555</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>12131231231@qq.com</t>
-  </si>
-  <si>
-    <t>试一试</t>
-  </si>
-  <si>
-    <t>410304199312140590</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>13298309877</t>
-  </si>
-  <si>
-    <t>43-2012215-201405598</t>
+    <t>郑州铁路职业技术学院</t>
+  </si>
+  <si>
+    <t>tom1</t>
+  </si>
+  <si>
+    <t>330182199501160026</t>
+  </si>
+  <si>
+    <t>tom2</t>
+  </si>
+  <si>
+    <t>330182199501160036</t>
+  </si>
+  <si>
+    <t>330182199501160046</t>
+  </si>
+  <si>
+    <t>340182199501160017</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>341182199501160017</t>
   </si>
 </sst>
 </file>
@@ -453,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
       </c>
       <c r="R1" t="s">
         <v>8</v>
@@ -508,37 +523,37 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -546,49 +561,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -596,40 +602,409 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="T4" t="s">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/excel_export_python/export_test_1.xlsx
+++ b/excel_export_python/export_test_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
   <si>
     <t>410084</t>
   </si>
@@ -46,6 +46,39 @@
     <t>水利201315502</t>
   </si>
   <si>
+    <t>110201</t>
+  </si>
+  <si>
+    <t>王飞</t>
+  </si>
+  <si>
+    <t>19940101</t>
+  </si>
+  <si>
+    <t>110101199401012757</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>13695635699</t>
+  </si>
+  <si>
+    <t>11级电子信息专业</t>
+  </si>
+  <si>
+    <t>北京市西城区灵境胡同10号</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>wangfei1994@163.com</t>
+  </si>
+  <si>
     <t>tom4</t>
   </si>
   <si>
@@ -109,9 +142,6 @@
     <t>330182199501160019</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>郑州铁路职业技术学院</t>
   </si>
   <si>
@@ -137,6 +167,24 @@
   </si>
   <si>
     <t>341182199501160017</t>
+  </si>
+  <si>
+    <t>试一试试一试</t>
+  </si>
+  <si>
+    <t>440100197907057371</t>
+  </si>
+  <si>
+    <t>方仁元元元元</t>
+  </si>
+  <si>
+    <t>440100198309225835</t>
+  </si>
+  <si>
+    <t>511702197407135024</t>
+  </si>
+  <si>
+    <t>511702199001103486</t>
   </si>
 </sst>
 </file>
@@ -468,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,43 +565,52 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -561,22 +618,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
@@ -588,13 +645,13 @@
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -602,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
@@ -629,39 +686,39 @@
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -676,33 +733,33 @@
         <v>8</v>
       </c>
       <c r="T5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
@@ -711,36 +768,36 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
         <v>8</v>
       </c>
       <c r="T6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
@@ -752,13 +809,13 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
         <v>8</v>
       </c>
       <c r="T7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -772,16 +829,16 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
@@ -790,16 +847,16 @@
         <v>4</v>
       </c>
       <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" t="s">
         <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -807,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
@@ -831,16 +888,16 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
         <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -848,40 +905,40 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
       <c r="R10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -889,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
@@ -916,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -930,22 +987,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
         <v>6</v>
@@ -957,13 +1014,13 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -971,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
@@ -998,13 +1055,227 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
         <v>8</v>
       </c>
       <c r="T13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
         <v>20</v>
+      </c>
+      <c r="R18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
